--- a/religiao.xlsx
+++ b/religiao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891BD15-5C8A-4363-9BC6-5D50D894492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE7524-45F4-4CF3-851E-A2AFFFE11A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,58 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RELIGIAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Frequency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Percent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valid Percent</t>
-    </r>
-  </si>
-  <si>
     <t>1 Católica</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 Assembléia de Deus</t>
-    </r>
   </si>
   <si>
     <t>3 Batista, Metodista, Plesbiteriana</t>
@@ -96,73 +45,10 @@
     <t>7 Quadrangular</t>
   </si>
   <si>
-    <t>7 Igreja Internacional da Graça</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>8 Renascer em Cristo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>9 Sara nossa terra</t>
-    </r>
-  </si>
-  <si>
     <t>10 Outras evangélicas específicas</t>
   </si>
   <si>
     <t>11 Evangélica não sabe especificar</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>12 Adventista</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>13 Testemunha de Jeová</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>14 Judaica</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>15 Espírita/ Kardecista</t>
-    </r>
   </si>
   <si>
     <t>16 Afrobrasileiras (Umbanda, candomblé etc)</t>
@@ -171,47 +57,55 @@
     <t>17 Orientais (Budeismo, Islamismo etc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>18 Outras religiões</t>
-    </r>
-  </si>
-  <si>
     <t>19 é religioso, mas não segue nenhuma/Agnóstico</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>20 Ateu, não tem religião</t>
-    </r>
+    <t>Frequency</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>99 Não respondeu</t>
-    </r>
+    <t>Percent</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total</t>
-    </r>
+    <t>Valid Percent</t>
+  </si>
+  <si>
+    <t>2 Assembléia de Deus</t>
+  </si>
+  <si>
+    <t>8 Renascer em Cristo</t>
+  </si>
+  <si>
+    <t>9 Sara nossa terra</t>
+  </si>
+  <si>
+    <t>12 Adventista</t>
+  </si>
+  <si>
+    <t>13 Testemunha de Jeová</t>
+  </si>
+  <si>
+    <t>14 Judaica</t>
+  </si>
+  <si>
+    <t>15 Espírita/ Kardecista</t>
+  </si>
+  <si>
+    <t>18 Outras religiões</t>
+  </si>
+  <si>
+    <t>20 Ateu, não tem religião</t>
+  </si>
+  <si>
+    <t>99 Não respondeu</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Religião</t>
+  </si>
+  <si>
+    <t>79 Igreja Internacional da Graça</t>
   </si>
 </sst>
 </file>
@@ -221,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,30 +124,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8.5"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8.5"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8.5"/>
-      <name val="Arial MT"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="Arial MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial MT"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,61 +213,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +274,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>260604</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>191262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="374650" cy="81280"/>
@@ -1101,7 +968,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>155517</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>51816</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="546735" cy="82550"/>
@@ -2360,452 +2227,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B2" s="8">
+        <v>313</v>
+      </c>
+      <c r="C2" s="9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D2" s="9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E2" s="9">
+        <v>39.200000000000003</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="22.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
+        <v>43</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="10">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="11">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
+      <c r="B6" s="10">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>47.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>313</v>
-      </c>
-      <c r="C3" s="5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D3" s="5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E3" s="5">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>48.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>44.5</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>46.1</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="B12" s="10">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>54.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B13" s="10">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13" s="11">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
-        <v>47.1</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="E14" s="11">
+        <v>59.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="11">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="11">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="E17" s="11">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>47.9</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="B18" s="10">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="E18" s="11">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>48.3</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="E19" s="11">
+        <v>70.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="8">
-        <v>48.6</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>48.9</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>48.9</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="E13" s="8">
-        <v>54.6</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E14" s="8">
-        <v>58.7</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>59.7</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="8">
-        <v>60.1</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="8">
-        <v>60.6</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="E18" s="8">
-        <v>66.5</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="E19" s="8">
-        <v>69</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="E20" s="8">
-        <v>70.7</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="B20" s="10">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="E20" s="11">
+        <v>72.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10">
+        <v>130</v>
+      </c>
+      <c r="C21" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7">
-        <v>15</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="E21" s="8">
-        <v>72.7</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="B22" s="10">
+        <v>41</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E22" s="11">
+        <v>94.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7">
-        <v>130</v>
-      </c>
-      <c r="C22" s="8">
-        <v>16.3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>16.3</v>
-      </c>
-      <c r="E22" s="8">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="B23" s="10">
+        <v>47</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="E23" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7">
-        <v>41</v>
-      </c>
-      <c r="C23" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D23" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E23" s="8">
-        <v>94.1</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="D24" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="B24" s="1">
+        <v>800</v>
+      </c>
+      <c r="C24" s="12">
         <v>100</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3">
-        <v>800</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="D24" s="12">
         <v>100</v>
       </c>
-      <c r="D25" s="15">
-        <v>100</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>